--- a/LOGS/9c51083f-f1f2-4b35-8fb6-276215c9cdc8/main_page_service_output/notes_standard_cropped_df.xlsx
+++ b/LOGS/9c51083f-f1f2-4b35-8fb6-276215c9cdc8/main_page_service_output/notes_standard_cropped_df.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="112">
   <si>
     <t>line_item_0</t>
   </si>
@@ -131,6 +131,66 @@
     <t>Rental machines</t>
   </si>
   <si>
+    <t>line_item_1</t>
+  </si>
+  <si>
+    <t>line_item_2</t>
+  </si>
+  <si>
+    <t>Accounting profit before</t>
+  </si>
+  <si>
+    <t>At Australia's statutory income tax rate of30%</t>
+  </si>
+  <si>
+    <t>Adjustments in respect of</t>
+  </si>
+  <si>
+    <t>-Entertainment</t>
+  </si>
+  <si>
+    <t>-Sundry items</t>
+  </si>
+  <si>
+    <t>Effect of lower tax rates</t>
+  </si>
+  <si>
+    <t>Income tax expense</t>
+  </si>
+  <si>
+    <t>income tax</t>
+  </si>
+  <si>
+    <t>current income tax of</t>
+  </si>
+  <si>
+    <t>in New Zealand</t>
+  </si>
+  <si>
+    <t>(2022: 30%)</t>
+  </si>
+  <si>
+    <t>Non deductible expenses</t>
+  </si>
+  <si>
+    <t>Current income tax charge</t>
+  </si>
+  <si>
+    <t>Adjustments in respect of current income tax of</t>
+  </si>
+  <si>
+    <t>Relating to origination and reversaloft temporary</t>
+  </si>
+  <si>
+    <t>statement of profit or loss</t>
+  </si>
+  <si>
+    <t>Deferred tax:</t>
+  </si>
+  <si>
+    <t>Income tax</t>
+  </si>
+  <si>
     <t>Guaranteed Maintenance</t>
   </si>
   <si>
@@ -191,12 +251,6 @@
     <t>2022 $000</t>
   </si>
   <si>
-    <t>line_item_1</t>
-  </si>
-  <si>
-    <t>line_item_2</t>
-  </si>
-  <si>
     <t>line_item_3</t>
   </si>
   <si>
@@ -260,6 +314,24 @@
     <t>Forward currency contracts</t>
   </si>
   <si>
+    <t>Obligations under finance lease</t>
+  </si>
+  <si>
+    <t>Lease liabilities</t>
+  </si>
+  <si>
+    <t>Bank loans</t>
+  </si>
+  <si>
+    <t>Obligations under finance</t>
+  </si>
+  <si>
+    <t>Non-current portion of long term bank loans</t>
+  </si>
+  <si>
+    <t>Non current</t>
+  </si>
+  <si>
     <t>Warranty and after sales service</t>
   </si>
   <si>
@@ -282,9 +354,6 @@
   </si>
   <si>
     <t>Current</t>
-  </si>
-  <si>
-    <t>Non current</t>
   </si>
   <si>
     <t>Carrying</t>
@@ -741,7 +810,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -752,16 +821,16 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="C2">
         <v>10877</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="F2">
         <v>2022</v>
@@ -772,16 +841,16 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="C3">
         <v>541</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="F3">
         <v>2023</v>
@@ -789,19 +858,19 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="C4">
         <v>-389</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="E4" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="F4">
         <v>2023</v>
@@ -812,16 +881,16 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="C5">
         <v>-44</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="E5" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="F5">
         <v>2023</v>
@@ -832,16 +901,16 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="C6">
         <v>10985</v>
       </c>
       <c r="D6" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="E6" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="F6">
         <v>2023</v>
@@ -852,16 +921,16 @@
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="C7">
         <v>-10043</v>
       </c>
       <c r="D7" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="E7" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="F7">
         <v>2022</v>
@@ -869,19 +938,19 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="C8">
         <v>-412</v>
       </c>
       <c r="D8" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="E8" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="F8">
         <v>2023</v>
@@ -889,19 +958,19 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="C9">
         <v>362</v>
       </c>
       <c r="D9" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="E9" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="F9">
         <v>2023</v>
@@ -912,16 +981,16 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="C10">
         <v>-7</v>
       </c>
       <c r="D10" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="E10" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="F10">
         <v>2023</v>
@@ -932,16 +1001,16 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="C11">
         <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="E11" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="F11">
         <v>2023</v>
@@ -952,16 +1021,16 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="C12">
         <v>-10059</v>
       </c>
       <c r="D12" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="E12" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="F12">
         <v>2023</v>
@@ -969,7 +1038,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -978,10 +1047,10 @@
         <v>834</v>
       </c>
       <c r="D13" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="E13" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="F13">
         <v>2022</v>
@@ -998,10 +1067,10 @@
         <v>926</v>
       </c>
       <c r="D14" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="E14" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="F14">
         <v>2023</v>
@@ -1057,10 +1126,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="C2">
         <v>38338</v>
@@ -1074,10 +1143,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="C3">
         <v>122106</v>
@@ -1091,10 +1160,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="C4">
         <v>294449</v>
@@ -1111,7 +1180,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="C5">
         <v>454893</v>
@@ -1125,10 +1194,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="C6">
         <v>167234</v>
@@ -1142,10 +1211,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="C7">
         <v>104628</v>
@@ -1159,10 +1228,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="C8">
         <v>160156</v>
@@ -1179,7 +1248,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="C9">
         <v>432018</v>
@@ -1223,7 +1292,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="C2">
         <v>29</v>
@@ -1251,7 +1320,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="C4">
         <v>10</v>
@@ -1284,12 +1353,278 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3">
+        <v>9201</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4">
+        <v>157815</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>167016</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7">
+        <v>16150</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8">
+        <v>26563</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9">
+        <v>42713</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11">
+        <v>9180</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12">
+        <v>191963</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>201159</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15">
+        <v>19160</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16">
+        <v>21027</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17">
+        <v>40189</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17">
+        <v>2022</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1325,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1342,13 +1677,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="D2">
         <v>16370</v>
@@ -1362,10 +1697,10 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="D3">
         <v>26361</v>
@@ -1379,10 +1714,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="D4">
         <v>135</v>
@@ -1396,10 +1731,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1416,7 +1751,7 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="D6">
         <v>42866</v>
@@ -1430,13 +1765,13 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="D7">
         <v>824</v>
@@ -1450,10 +1785,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="C8" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="D8">
         <v>5080</v>
@@ -1470,7 +1805,7 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="D9">
         <v>5904</v>
@@ -1484,13 +1819,13 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="D10">
         <v>14287</v>
@@ -1504,10 +1839,10 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="D11">
         <v>22270</v>
@@ -1521,10 +1856,10 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="D12">
         <v>130</v>
@@ -1538,10 +1873,10 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="D13">
         <v>42</v>
@@ -1558,7 +1893,7 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="D14">
         <v>36729</v>
@@ -1572,13 +1907,13 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="B15" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="C15" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="D15">
         <v>713</v>
@@ -1592,10 +1927,10 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="C16" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="D16">
         <v>4533</v>
@@ -1612,7 +1947,7 @@
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="D17">
         <v>5246</v>
@@ -1653,282 +1988,282 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" t="s">
         <v>84</v>
-      </c>
-      <c r="B2" t="s">
-        <v>66</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" t="s">
         <v>84</v>
-      </c>
-      <c r="B5" t="s">
-        <v>66</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" t="s">
         <v>84</v>
-      </c>
-      <c r="B6" t="s">
-        <v>66</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" t="s">
         <v>84</v>
-      </c>
-      <c r="B9" t="s">
-        <v>66</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" t="s">
         <v>84</v>
-      </c>
-      <c r="B10" t="s">
-        <v>66</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" t="s">
         <v>84</v>
-      </c>
-      <c r="B13" t="s">
-        <v>66</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" t="s">
         <v>84</v>
-      </c>
-      <c r="B14" t="s">
-        <v>66</v>
       </c>
       <c r="C14">
         <v>14287</v>
       </c>
       <c r="D14" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="B15" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="C15">
         <v>8841</v>
       </c>
       <c r="D15" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="C16">
         <v>-6758</v>
       </c>
       <c r="D16" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" t="s">
         <v>84</v>
-      </c>
-      <c r="B17" t="s">
-        <v>66</v>
       </c>
       <c r="C17">
         <v>16370</v>
       </c>
       <c r="D17" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
+        <v>107</v>
+      </c>
+      <c r="B18" t="s">
         <v>84</v>
-      </c>
-      <c r="B18" t="s">
-        <v>66</v>
       </c>
       <c r="C18">
         <v>13582</v>
       </c>
       <c r="D18" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="C19">
         <v>10989</v>
       </c>
       <c r="D19" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="C20">
         <v>-10284</v>
       </c>
       <c r="D20" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21" t="s">
         <v>84</v>
-      </c>
-      <c r="B21" t="s">
-        <v>66</v>
       </c>
       <c r="C21">
         <v>14287</v>
       </c>
       <c r="D21" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1958,7 +2293,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -1966,16 +2301,16 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="C2">
         <v>33670</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -1986,16 +2321,16 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="C3">
         <v>33670</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -3729,24 +4064,500 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2">
+        <v>325647</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3">
+        <v>97694</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4">
+        <v>84</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6">
+        <v>3982</v>
+      </c>
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7">
+        <v>-102</v>
+      </c>
+      <c r="F7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8">
+        <v>101692</v>
+      </c>
+      <c r="F8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9">
+        <v>226023</v>
+      </c>
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10">
+        <v>67807</v>
+      </c>
+      <c r="F10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11">
+        <v>447</v>
+      </c>
+      <c r="F11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12">
+        <v>21</v>
+      </c>
+      <c r="F12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13">
+        <v>-187</v>
+      </c>
+      <c r="F13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14">
+        <v>-136</v>
+      </c>
+      <c r="F14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15">
+        <v>67952</v>
+      </c>
+      <c r="F15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15">
+        <v>2022</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2">
+        <v>111412</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3">
+        <v>84</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4">
+        <v>-9804</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5">
+        <v>101692</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6">
+        <v>71361</v>
+      </c>
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7">
+        <v>447</v>
+      </c>
+      <c r="F7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8">
+        <v>-3856</v>
+      </c>
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9">
+        <v>67952</v>
+      </c>
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9">
+        <v>2022</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3778,16 +4589,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="C2">
         <v>5781</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E2">
         <v>2023</v>
@@ -3795,16 +4606,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="C3">
         <v>5963</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E3">
         <v>2023</v>
@@ -3812,16 +4623,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="C4">
         <v>4498</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E4">
         <v>2023</v>
@@ -3829,16 +4640,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="C5">
         <v>4229</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E5">
         <v>2023</v>
@@ -3846,16 +4657,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="C6">
         <v>3347</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E6">
         <v>2023</v>
@@ -3863,16 +4674,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="C7">
         <v>2383</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E7">
         <v>2023</v>
@@ -3880,16 +4691,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="C8">
         <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E8">
         <v>2023</v>
@@ -3897,16 +4708,16 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="C9">
         <v>7024</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E9">
         <v>2023</v>
@@ -3914,16 +4725,16 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="C10">
         <v>2296</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E10">
         <v>2023</v>
@@ -3931,16 +4742,16 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="C11">
         <v>1724</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E11">
         <v>2023</v>
@@ -3948,16 +4759,16 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="C12">
         <v>937</v>
       </c>
       <c r="D12" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E12">
         <v>2023</v>
@@ -3965,16 +4776,16 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="C13">
         <v>-568</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E13">
         <v>2023</v>
@@ -3982,16 +4793,16 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="C14">
         <v>2094</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E14">
         <v>2023</v>
@@ -3999,16 +4810,16 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="C15">
         <v>-565</v>
       </c>
       <c r="D15" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E15">
         <v>2023</v>
@@ -4016,16 +4827,16 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="C16">
         <v>1920</v>
       </c>
       <c r="D16" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E16">
         <v>2023</v>
@@ -4033,16 +4844,16 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="C17">
         <v>-1442</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E17">
         <v>2023</v>
@@ -4050,16 +4861,16 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="C18">
         <v>39659</v>
       </c>
       <c r="D18" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E18">
         <v>2023</v>
@@ -4067,16 +4878,16 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="C19">
         <v>3774</v>
       </c>
       <c r="D19" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="E19">
         <v>2022</v>
@@ -4084,16 +4895,16 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="C20">
         <v>4784</v>
       </c>
       <c r="D20" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="E20">
         <v>2022</v>
@@ -4101,16 +4912,16 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="C21">
         <v>3337</v>
       </c>
       <c r="D21" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="E21">
         <v>2022</v>
@@ -4118,16 +4929,16 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="C22">
         <v>2865</v>
       </c>
       <c r="D22" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="E22">
         <v>2022</v>
@@ -4135,16 +4946,16 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="C23">
         <v>2975</v>
       </c>
       <c r="D23" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="E23">
         <v>2022</v>
@@ -4152,16 +4963,16 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="C24">
         <v>1921</v>
       </c>
       <c r="D24" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="E24">
         <v>2022</v>
@@ -4169,16 +4980,16 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="C25">
         <v>-108</v>
       </c>
       <c r="D25" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="E25">
         <v>2022</v>
@@ -4186,16 +4997,16 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="C26">
         <v>5203</v>
       </c>
       <c r="D26" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="E26">
         <v>2022</v>
@@ -4203,16 +5014,16 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="C27">
         <v>2656</v>
       </c>
       <c r="D27" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="E27">
         <v>2022</v>
@@ -4220,16 +5031,16 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="B28" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="C28">
         <v>1438</v>
       </c>
       <c r="D28" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="E28">
         <v>2022</v>
@@ -4237,16 +5048,16 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="B29" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="E29">
         <v>2022</v>
@@ -4254,16 +5065,16 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="B30" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="C30">
         <v>-2454</v>
       </c>
       <c r="D30" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="E30">
         <v>2022</v>
@@ -4271,16 +5082,16 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="B31" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="C31">
         <v>4071</v>
       </c>
       <c r="D31" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="E31">
         <v>2022</v>
@@ -4288,16 +5099,16 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="B32" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="C32">
         <v>-1206</v>
       </c>
       <c r="D32" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="E32">
         <v>2022</v>
@@ -4305,16 +5116,16 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="B33" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="C33">
         <v>529</v>
       </c>
       <c r="D33" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="E33">
         <v>2022</v>
@@ -4322,16 +5133,16 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="B34" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="C34">
         <v>-1037</v>
       </c>
       <c r="D34" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="E34">
         <v>2022</v>
@@ -4339,16 +5150,16 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="B35" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="C35">
         <v>28748</v>
       </c>
       <c r="D35" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="E35">
         <v>2022</v>
@@ -4372,16 +5183,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
@@ -4393,7 +5204,7 @@
         <v>3</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>4</v>
@@ -4401,19 +5212,19 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="G2">
         <v>42234</v>
       </c>
       <c r="H2" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="I2" t="s">
         <v>7</v>
@@ -4424,19 +5235,19 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="G3">
         <v>-2575</v>
       </c>
       <c r="H3" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="I3" t="s">
         <v>7</v>
@@ -4447,19 +5258,19 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="G4">
         <v>39659</v>
       </c>
       <c r="H4" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="I4" t="s">
         <v>7</v>
@@ -4470,19 +5281,19 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="G5">
         <v>42234</v>
       </c>
       <c r="H5" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="I5" t="s">
         <v>8</v>
@@ -4493,19 +5304,19 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="G6">
         <v>-2575</v>
       </c>
       <c r="H6" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="I6" t="s">
         <v>8</v>
@@ -4516,19 +5327,19 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="G7">
         <v>39659</v>
       </c>
       <c r="H7" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="I7" t="s">
         <v>8</v>
@@ -4539,19 +5350,19 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="G8">
         <v>33553</v>
       </c>
       <c r="H8" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="I8" t="s">
         <v>8</v>
@@ -4562,19 +5373,19 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="G9">
         <v>-4805</v>
       </c>
       <c r="H9" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="I9" t="s">
         <v>8</v>
@@ -4585,19 +5396,19 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="G10">
         <v>28748</v>
       </c>
       <c r="H10" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="I10" t="s">
         <v>8</v>
